--- a/bayut_card_data_final.xlsx
+++ b/bayut_card_data_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,6 +1425,956 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87623102.html</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>110,000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>136 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>+966-92-003-1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87623084.html</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>110,000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8,025 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>+966-92-003-1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87676575.html</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>105,000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>130 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>+966-92-003-1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87675786.html</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>178 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>+966-54-335-5351</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87622355.html</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>450 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>+966-92-001-5314</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87692577.html</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>172 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+966-11-500-2936</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87647564.html</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>178 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>+966-56-903-9399</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87644301.html</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>140 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+966-54-773-9385</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87680248.html</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>246 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+966-50-700-0667</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87632748.html</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>110 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+966-55-549-5569</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87651462.html</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>163 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+966-59-666-6322</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87641576.html</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>163 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+966-50-373-3355</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87635666.html</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>198 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+966-50-444-3396</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87593294.html</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>157 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+966-56-600-0987</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87630621.html</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>137 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+966-59-888-8037</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87633826.html</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>103 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>+966-55-541-7977</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87644039.html</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>92,000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>178 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+966-50-373-3355</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87622599.html</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>90,000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>139 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+966-11-500-2536</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87678593.html</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>90,000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>204 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+966-92-003-1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87677914.html</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>90,000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>129 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>+966-92-003-1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87685313.html</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>90,000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>186 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+966-92-001-5358</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87685280.html</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90,000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>142 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>+966-92-003-1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87684997.html</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>90,000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>172 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+966-58-080-5111</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87586871.html</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>90,000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>166 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+966-11-500-2343</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87669996.html</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Listing link</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>90,000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>158 Sq. M.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+966-55-699-7929</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
